--- a/curriculum/AC 2/learning_goals.xlsx
+++ b/curriculum/AC 2/learning_goals.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara/Desktop/R/STARS/learning_goals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara/Desktop/GitHub/STARS/curriculum/AC 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4052E473-4598-1C48-93B6-D4392420A732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1270BC2A-C658-BE4D-BC82-54E59397229F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5140" yWindow="500" windowWidth="31640" windowHeight="18060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="analysis" sheetId="2" r:id="rId1"/>
-    <sheet name="web scraping output" sheetId="1" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="2" r:id="rId1"/>
+    <sheet name="Five College Certificates" sheetId="3" r:id="rId2"/>
+    <sheet name="Web Scraping Output" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="184">
   <si>
     <t>dept</t>
   </si>
@@ -704,23 +727,6 @@
 Have opportunities and encouragement to pursue independent economic research driven by their own interests, and to assist faculty with their research.</t>
   </si>
   <si>
-    <t>Upon completion of the LJST major, we expect our graduates ... 
-to have attained a nuanced understanding of law as a subject of liberal inquiry, attending to the ways law combines moral argument, interpretive practice and force in regulating social life; 
-to have learned the history and development of legal orders in the United States, while also coming to appreciate law in its broader cross-cultural, historical, and global dimensions; 
-to be able to write and speak about legal phenomena with precision, clarity, creativity and analytic rigor; 
-to have developed sophisticated independent research skills; and to be able to use their legal learning and the skills they develop in their vocational and civic lives.</t>
-  </si>
-  <si>
-    <t>Upon completion of the Statistics major, we expect our graduates:
-To have acquired proficiency with the application of a wide range of statistical techniques, as well as a theoretical foundation in probability and statistical inference.
-To have developed computational and data analysis skills including facility with statistical software and acquisition of data management skills, with an emphasis on reproducible analysis.
-To have demonstrated in a variety of courses and in several formats, the ability to clearly communicate results of statistical analyses, as well as the ability to read and understand statistical techniques in primary research.
-To demonstrate ethical awareness and the ability to reflect on ethical implications of data-based decisions and technologies in an informed manner and to be able to articulate strategies for dealing with simpler ethical dilemmas and identify resources to consult for guiding ethical decision-making in more complicated situations.
-To have learned to collaborate with individuals with different backgrounds and strengths, have contributed to an inclusive and positive learning community supporting their peers, and have learned to respect, appreciate, and acknowledge individual differences and contributions.
-To be able to use their statistical knowledge as a tool for understanding and improving the world around them; to understand the limitations of their skills and knowledge, and to both have an interest in continuing to learn statistics and the ability to identify resources to expand and fill in gaps in their knowledge.
-For honors students, to have delved deeply into an advanced topic and written a clear and detailed exposition in the form of a senior thesis.</t>
-  </si>
-  <si>
     <t>The Philosophy Department at Amherst College promotes the following:
 familiarity with the central figures and texts in the history of philosophy, both ancient and modern;
 familiarity with, and thoughtful reflection upon, contemporary philosophical topics and practices;
@@ -804,9 +810,6 @@
     <t>Program</t>
   </si>
   <si>
-    <t>Qualification</t>
-  </si>
-  <si>
     <t>Sustainability will be essential to the formulation of sound environmental, economic and social progress in the 21st century. The Five College Sustainability Studies certificate (FCSS) program is designed to engage students in a structured course of study that will draw on courses from across the campuses in a range of disciplines. Students complete an internship, independent research project or advanced course work in sustainability studies.
 The Five College Sustainability Studies Certificate Program is available to students at Amherst College, Hampshire College and Mount Holyoke College, and incorporates courses and other academic offerings from all five campuses. If you are interested in pursuing the certificate, please contact the certificate advisor at your campus.</t>
   </si>
@@ -850,9 +853,6 @@
     <t>% of Degrees Awarded (2022)</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Total Degrees Awarded (2022)</t>
   </si>
   <si>
@@ -874,10 +874,251 @@
     <t>Five College Program in Culture, Health, and Science</t>
   </si>
   <si>
+    <t>Justification</t>
+  </si>
+  <si>
+    <t>Upon graduation, a major in the Sexuality, Women's and Gender Studies department should...
+- be able to analyze the intersection of gender with other categories of difference such as race, class, sexuality.
+- have a global perspective on women, gender and sexuality and take classes that focus on the global south.
+In order to achieve these goals, students should be able to analyze women and gender in the context of... understanding social and political issues from a comparative, transnational perspective.</t>
+  </si>
+  <si>
+    <t>Upon completion of the Statistics major, we expect our graduates...
+- To demonstrate ethical awareness and the ability to reflect on ethical implications of data-based decisions and technologies in an informed manner and to be able to articulate strategies for dealing with simpler ethical dilemmas and identify resources to consult for guiding ethical decision-making in more complicated situations.
+- To be able to use their statistical knowledge as a tool for understanding and improving the world around them; to understand the limitations of their skills and knowledge, and to both have an interest in continuing to learn statistics and the ability to identify resources to expand and fill in gaps in their knowledge.</t>
+  </si>
+  <si>
+    <t>Upon completion of the Statistics major, we expect our graduates:
+To have acquired proficiency with the application of a wide range of statistical techniques, as well as a theoretical foundation in probability and statistical inference.
+To have developed computational and data analysis skills including facility with statistical software and acquisition of data management skills, with an emphasis on reproducible analysis.
+To have demonstrated in a variety of courses and in several formats, the ability to clearly communicate results of statistical analyses, as well as the ability to read and understand statistical techniques in primary research.
+To demonstrate ethical awareness and the ability to reflect on ethical implications of data-based decisions and technologies in an informed manner and to be able to articulate strategies for dealing with simpler ethical dilemmas and identify resources to consult for guiding ethical decision-making in more complicated situations.
+To have learned to collaborate with individuals with different backgrounds and strengths, have contributed to an inclusive and positive learning community supporting their peers, and have learned to respect, appreciate, and acknowledge individual differences and contributions.
+To be able to use their statistical knowledge as a tool for understanding and improving the world around them; to understand the limitations of their skills and knowledge, and to both have an interest in continuing to learn statistics and the ability to identify resources to expand and fill in gaps in their knowledge.
+For honors students, to have delved deeply into an advanced topic and written a clear and detailed exposition in the form of a senior thesis.</t>
+  </si>
+  <si>
+    <t>Students pursuing a geology major will:
+- Examine complex systems over the wide range of temporal and spatial scales encompassed by the earth sciences
+- Develop scientific methods of data collection and analysis and of formulating and testing hypotheses.  
+- Understand and apply the technical literature; use geological literature to expand understanding, to find relevant information, to participate in the growth of knowledge and to know its limits
+- Apply quantitative reasoning and logic to problem solving; become proficient in spatial reasoning through, among other means, use of geologic maps and cross-sections
+- Be exposed to the importance of interdisciplinary approaches</t>
+  </si>
+  <si>
+    <t>Majors are expected to:
+- obtain a scientifically-grounded appreciation of the underlying physical and biological processes that shape ecosystems on Earth, including a comprehensive understanding of major environmental challenges – climate change, depletion/degradation of natural resources, and loss of biodiversity.
+- learn basic research methods that can be used to analyze the natural or socio-political components of environmental systems, including statistics, ethnographic research, econometrics, survey methods, interview methods, or Geographic Information Systems. 
+- critically evaluate and engage with public debates about environmental issues.</t>
+  </si>
+  <si>
+    <t>Our expectation is that through systematic exposure to discipline-specific concepts, theories, and methods of inquiry, majors in Anthropology and Sociology will strive to challenge conventional wisdom, wherever they find it, and contribute to a more just world.
+Through completion of an Anthropology or Sociology major, among the more specific intellectual competencies we seek to foster in our students are:
+- identifying the social and cultural underpinnings of human action and their variation across time and place
+- understanding how broad-based structures and institutional dynamics shape society, culture, and the self
+- exposing assumptions that underlie disciplinary research; grasping complex empirical and theoretical problems and developing appropriate analytical logics to study and explain them; comprehending power dynamics that generate stratification and inequality
+- grasping the political and ethical implications of social research
+- communicating anthropological and sociological knowledge effectively in written and oral forms
+- and recognizing and respecting social and cultural differences, including the role they play in rethinking the truth claims of hegemonic discourse, inside and outside the classroom.</t>
+  </si>
+  <si>
+    <t>By graduation a Biology Major from Amherst College should be able to:
+- Demonstrate an understanding of biological principles and the ability to make connections across different levels of biological organization, from molecules to cells to whole organisms, populations, communities, and ecosystems.
+- Apply basic laboratory and field techniques used in a variety of biological sub-disciplines, and demonstrate the quantitative skills necessary to interpret data and
+- Understand and appreciate the structural and systemic barriers to access and participation of marginalized individuals within STEM fields.
+DEI Course Requirement</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Majors are required to take: "One DEI course that engages with issues of systemic racism, diversity, equity, and inclusion, or social justice as it pertains to science and scientific communities." </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
-1. Sustainability-focused qualifications (Y)
-2. Qualifications focused on subjects other than sustainability that have sustainability-focused learning requirements (M)
+Examples of existing courses that fulfill this requirement are listed here:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.amherst.edu/academiclife/departments/biochemistry-biophysics/bcbpcourses/major-requirements</t>
+    </r>
+  </si>
+  <si>
+    <t>In whatever capacity students face educational questions after leaving Amherst—be it as a citizen, a student, a parent, a teacher, a researcher, or a policy-maker—a major in Education Studies will prepare them to think through crucial questions for democracy: education’s role in the production of citizens and nations; education role as a tool of cultural reproduction and transformation; the sources and mechanisms of social inequalities; how teaching and learning happen; and how and why schools and school systems look the ways they do. Students will also leave the program with ideas about how society might revive, reimagine, and restructure its educational—and with it social, political and economic—institutions.</t>
+  </si>
+  <si>
+    <t>Students who complete the major in Architectural Studies will be able to: 
+- demonstrate in-depth knowledge about aspects of architecture and the built environment
+- think critically about the relationship between materials of architectural production and the history, politics, performance and spatial context of their production;
+- study architecture and the built environment in an independent and interdisciplinary manner</t>
+  </si>
+  <si>
+    <t>Upon graduation, a major in Spanish should have:
+• A high degree of oral (listening and speaking), reading, and written fluency in the language.
+• An understanding of antiracist and decolonial approaches to the field of study.
+• A focused grasp of the various Spanish-speaking cultures in three main geographical areas:  Spain, Latin America &amp; the Caribbean, and Latinos in the U.S., as well as the interaction among these cultures.</t>
+  </si>
+  <si>
+    <t>Students Majoring in Religion at Amherst are expected to
+- Acquire a strong foundation in at least one religious tradition – Buddhism, Christianity, Judaism, Islam, or Hinduism -- and be able to recognize its diverse manifestations in history. Students will be able to engage in informed discussion of its textual past, historical development, and contemporary forms.
+- Analyze religion’s embeddedness in cultural, economic, political, and social life, and interpret the complex ways religious ideas and institutions both shape and are inflected by other social realities.</t>
+  </si>
+  <si>
+    <t>Latinx and Latin American Studies (LLAS) is an interdisciplinary major designed for students interested in critically examining the diverse ­­­histories and cultures of Latin America, the Caribbean, and U.S. Latinxs. Students in the major gain breadth and depth of learning through courses in the humanities and the social sciences that situate these histories and cultures within local, national, regional, hemispheric, and global contexts over time. Practical experiences, such as community projects and study abroad, provide opportunities to apply this learning in transformative ways.</t>
+  </si>
+  <si>
+    <t>Upon completion of the Mathematics major, we expect our graduates:
+- To have acquired both proficiency at calculation and a theoretical understanding of single-variable calculus, multivariable calculus, and linear algebra.
+- To have developed an ability to read and understand mathematical proofs, as well as to construct and communicate their own mathematical proofs.
+- To have demonstrated in a variety of courses the ability to learn and apply new mathematical concepts, definitions, theorems, reasoning skills, and proof skills.
+For honors students, to have delved deeply into an advanced topic and written a clear and detailed exposition in the form of a senior thesis.</t>
+  </si>
+  <si>
+    <t>Upon completion of the LJST major, we expect our graduates ... 
+- to have attained a nuanced understanding of law as a subject of liberal inquiry, attending to the ways law combines moral argument, interpretive practice and force in regulating social life; 
+- to have learned the history and development of legal orders in the United States, while also coming to appreciate law in its broader cross-cultural, historical, and global dimensions; 
+- to be able to write and speak about legal phenomena with precision, clarity, creativity and analytic rigor; 
+- to have developed sophisticated independent research skills; and to be able to use their legal learning and the skills they develop in their vocational and civic lives.</t>
+  </si>
+  <si>
+    <t>Students who complete the major in History will be able to:
+- Think critically about the relationship between historical evidence and arguments.
+- Challenge and revise existing narratives of the past, both to comprehend the events they describe and to shed light on society’s evolving needs and concerns.
+- Question their own ideas and assumptions, and reflect on the often hidden relationships between ideas and social institutions, and between individuals and their cultures.
+- Analyze texts, documents, and oral historical materials, and assess the uses made of these materials by other historians.
+- Frame research questions, conduct independent research and write persuasively.
+- The requirements for the history major encourage students to develop these capacities by studying the history of a particular region or historical topic in-depth and by ranging more widely so as to fulfill geographical and chronological breadth requirements.</t>
+  </si>
+  <si>
+    <t>Students who complete the major in History will be able to:
+- Think critically about the relationship between historical evidence and arguments.
+- Challenge and revise existing narratives of the past, both to comprehend the events they describe and to shed light on society’s evolving needs and concerns.
+- Question their own ideas and assumptions, and reflect on the often hidden relationships between ideas and social institutions, and between individuals and their cultures.
+- The requirements for the history major encourage students to develop these capacities by studying the history of a particular region or historical topic in-depth and by ranging more widely so as to fulfill geographical and chronological breadth requirements.</t>
+  </si>
+  <si>
+    <t>The German department serves three interrelated, sometimes overlapping constituencies: all our courses, taught in German or in English, enhance students’ critical reasoning skills and cross-cultural awareness.Our sequence of language courses (ranging from beginners to the advanced intermediate level) develops linguistic proficiency and cross-cultural competency that enables our students to interact with native speakers in an informed and culturally sensitive manner.  Our language program thus prepares students for a broad range of opportunities (such as study abroad, internships, fellowships, and employment in or interaction with the German-speaking world).The German Studies Major is broadly humanistic, cross-cultural, and inclusive.  Our students are required to develop German language skills at the advanced intermediate level (at the minimum) and cultural literacy skills for a critical understanding of the literary, historical, and cultural traditions of the German-speaking countries: The Federal Republic of Germany, Austria, and Switzerland, as well as Belgium, Liechtenstein, and Luxembourg.  The department offers effective preparation for graduate study in German literature and language while also opening up a broad range of interdisciplinary perspectives and opportunities.Our English courses, open to all students regardless of preparation, focus in particular on developing students’ ability to engage critically with unfamiliar materials through close readings; on exposing them to a broad range of different perspectives; and on enhancing their skills in written and oral expression.</t>
+  </si>
+  <si>
+    <t>Upon graduation, a major in the classics department should be able to:
+- read Classical texts within their cultural and historical settings (Roman texts for Latin majors, Greek texts for Greek majors, and both for classics majors)
+- read texts critically and analyze them closely;write clearly and persuasively
+- conduct basic research necessary for the study of the classical world;
+- pursue graduate work in classics or a career in teaching Latin and/or Greek at the secondary school level.</t>
+  </si>
+  <si>
+    <t>By the time students complete the Black Studies major, they should be able to:
+- demonstrate broad familiarity with several regions in Africa and the African Diaspora;
+- read books and articles across the range of genres and disciplines in which scholars have written about race-related topics;
+- recognize and utilize the elements of sound argument in their reading and writing;
+- focus their work within the major on a particular field or a specific research question;
+- prepare and complete an extended research project.</t>
+  </si>
+  <si>
+    <t>By graduation we expect our majors will have become:
+- Attentive to the production of culture and to social and political change in a range of historical periods and social contexts.
+- Knowledgeable about racial, gender, sexual, class, and other hierarchies embedded in societies.
+- Capable of connecting scholarly work to contemporary issues of community, societal, national, and international concern.</t>
+  </si>
+  <si>
+    <t>By graduation majors should be able to:
+- express themselves fluently and correctly in French, both orally and in writing;
+think critically
+- demonstrate general knowledge of French culture
+- know how to analyze and appreciate a literary text.</t>
+  </si>
+  <si>
+    <t>By graduation a concentrator in Asian Languages and Civilizations is expected to have gained a sophisticated understanding of one of the four cultural areas that make up our department. In addition, we expect students to expand their understanding of Asia by taking two classes in two of the three areas outside of their region of concentration.
+We expect students to have attained at least third-year competency in one Asian language. In addition to gaining broad exposure to the history and culture of one region, we expect them to have acquired the facility in at least one of the disciplines represented in our curriculum.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Chemistry majors are required to take: "A course focusing on structural and systemic issues of diversity, equity, and inclusion"
+View example course options here:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.amherst.edu/academiclife/departments/chemistry/major/major-requirements/courses-satisfying-the-chemistry-major-dei-requirement</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Students should acquire a broad background in the study of politics through the study of four subfields, including International Relations/World Politics and Comparative Politics.
+Students should become informed and reflective citizens as well as become knowledgeable about the historical forces and global dynamics that influence the shape and content of political life.</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>AC 2.2 &amp; AC 2.3 Undergraduate programs with sustainability-focused learning requirements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scoring:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Sustainability-focused qualifications (1)
+2. Qualifications focused on subjects other than sustainability that have sustainability-focused learning requirements (2)
+3. Potentially qualifying; ethnic/area studies disciplines (3)
 </t>
     </r>
     <r>
@@ -885,9 +1126,11 @@
         <u/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri (Body)"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>Definition:</t>
+      <t>Definitions:</t>
     </r>
     <r>
       <rPr>
@@ -924,18 +1167,42 @@
 - Students will be able to define sustainability and identify major sustainability challenges.
 - Students will use appropriate evidence and tools to evaluate the carrying capacity of ecosystems as related to providing for human needs.
 - Students will be able to apply concepts of sustainable development to address sustainability challenges in a global context.
-- Students will identify, act on, and evaluate their professional and personal actions with the knowledge and appreciation of interconnections among economic, environmental, and social perspectives.</t>
+- Students will identify, act on, and evaluate their professional and personal actions with the knowledge and appreciation of interconnections among economic, environmental, and social perspectives.
+</t>
     </r>
-  </si>
-  <si>
-    <t>AC 2.2 &amp; AC 2.3: Undergraduate programs with sustainability-focused learning requirements</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IPEDS Data:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+https://nces.ed.gov/ipeds/datacenter/FacsimileView.aspx?surveyNumber=3&amp;unitId=164465&amp;year=2022
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -950,12 +1217,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri (Body)"/>
     </font>
     <font>
       <sz val="11"/>
@@ -977,6 +1238,54 @@
       <color rgb="FF0070C0"/>
       <name val="Futura Medium"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFBDE2D"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF0070C0"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -992,7 +1301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1026,12 +1335,8 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </bottom>
@@ -1040,18 +1345,34 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
       <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1065,48 +1386,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1426,572 +1818,1997 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE572C5-36BE-1C4D-888F-798DAC207246}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G425"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="124" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" ht="178" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="277" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="299" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="3">
+        <v>12</v>
+      </c>
+      <c r="F4" s="21">
+        <f>E4/505</f>
+        <v>2.3762376237623763E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="299" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="2">
         <f>12+6</f>
         <v>18</v>
       </c>
-      <c r="E5" s="10">
-        <f>D5/D42</f>
+      <c r="F5" s="21">
+        <f>E5/505</f>
         <v>3.5643564356435641E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="C6" s="5"/>
+      <c r="F6" s="21">
+        <f t="shared" ref="F6:F40" si="0">E6/505</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="0"/>
+        <v>2.9702970297029702E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="208" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="2">
+        <v>133</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="2">
         <v>31</v>
       </c>
-      <c r="E8" s="10">
-        <f>D8/D42</f>
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
         <v>6.1386138613861385E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="131" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="0"/>
+        <v>2.1782178217821781E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="0"/>
+        <v>1.782178217821782E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="192" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="F11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="C12" s="5"/>
+      <c r="F12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="C13" s="5"/>
+      <c r="F13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="160" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="C14" s="5"/>
+      <c r="F14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="208" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="2">
         <v>16</v>
       </c>
-      <c r="E15" s="10">
-        <f>D15/D42</f>
+      <c r="F15" s="21">
+        <f t="shared" si="0"/>
         <v>3.1683168316831684E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="192" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="F16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="208" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="2">
         <v>5</v>
       </c>
-      <c r="E17" s="10">
-        <f>D17/D42</f>
+      <c r="F17" s="21">
+        <f t="shared" si="0"/>
         <v>9.9009900990099011E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="320" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="F18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="208" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="2">
+        <v>23</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="0"/>
+        <v>4.5544554455445543E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="0"/>
+        <v>3.9603960396039604E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="F21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="2">
+        <v>15</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="0"/>
+        <v>2.9702970297029702E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="F23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="256" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="2">
-        <v>20</v>
-      </c>
-      <c r="E20" s="10">
-        <f>D20/D42</f>
-        <v>3.9603960396039604E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="160" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="288" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="2">
-        <v>15</v>
-      </c>
-      <c r="E22" s="10">
-        <f>D22/D42</f>
-        <v>2.9702970297029702E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="256" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="224" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="C24" s="5"/>
+      <c r="F24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="224" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="224" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="C25" s="5"/>
+      <c r="F25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="224" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="C26" s="5"/>
+      <c r="F26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="2">
+        <v>61</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" si="0"/>
+        <v>0.12079207920792079</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="2">
-        <v>61</v>
-      </c>
-      <c r="E27" s="10">
-        <f>D27/D42</f>
-        <v>0.12079207920792079</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="256" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="C28" s="5"/>
+      <c r="F28" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="256" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="304" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="21">
+        <f t="shared" si="0"/>
+        <v>5.9405940594059407E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="304" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="224" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="F30" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="224" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="2">
         <v>6</v>
       </c>
-      <c r="E31" s="10">
-        <f>D31/D42</f>
+      <c r="F31" s="21">
+        <f t="shared" si="0"/>
         <v>1.1881188118811881E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="176" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="C32" s="5">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8</v>
+      </c>
+      <c r="F32" s="21">
+        <f t="shared" si="0"/>
+        <v>1.5841584158415842E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="208" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="F33" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C34" s="5">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="2">
         <v>6</v>
       </c>
-      <c r="E34" s="10">
-        <f>D34/D42</f>
+      <c r="F34" s="21">
+        <f t="shared" si="0"/>
         <v>1.1881188118811881E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="208" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="C35" s="5">
+        <v>2</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="2">
+        <v>15</v>
+      </c>
+      <c r="F35" s="21">
+        <f t="shared" si="0"/>
+        <v>2.9702970297029702E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="C36" s="5">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="2">
         <v>7</v>
       </c>
-      <c r="E36" s="10">
-        <f>D36/D42</f>
+      <c r="F36" s="21">
+        <f t="shared" si="0"/>
         <v>1.3861386138613862E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="224" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:7" ht="224" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="256" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="C37" s="5"/>
+      <c r="F37" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="256" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="C38" s="5"/>
+      <c r="F38" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="176" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="C39" s="5">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="21">
+        <f t="shared" si="0"/>
+        <v>1.9801980198019802E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="C40" s="5"/>
+      <c r="F40" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="7">
+      <c r="C42" s="17"/>
+      <c r="E42" s="5">
         <v>505</v>
       </c>
-      <c r="E42" s="8">
-        <f>SUM(E4:E40)</f>
-        <v>0.36633663366336638</v>
-      </c>
-      <c r="F42" s="9">
-        <f>SUM(E17,E15,E8)</f>
-        <v>0.10297029702970298</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" ht="112" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="304" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="240" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="112" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="F42" s="13" cm="1">
+        <f t="array" ref="F42">SUMPRODUCT(--((ISNUMBER(SEARCH("2",C4:C40)) + ISNUMBER(SEARCH("1",C4:C40)))&gt;0),E4:E40)/E42</f>
+        <v>0.37425742574257426</v>
+      </c>
+      <c r="G42" s="13">
+        <f>SUMIF(C4:C40, 1, F4:F40)</f>
+        <v>0.10297029702970296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C43" s="18"/>
+    </row>
+    <row r="44" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="C44" s="18"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C45" s="18"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C46" s="18"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C47" s="18"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C48" s="18"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="18"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="18"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="18"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="18"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="18"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="18"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="18"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="18"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="18"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="18"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="18"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="18"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="18"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="18"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="18"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="18"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="18"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="18"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="18"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="18"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="18"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="18"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="18"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="18"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="18"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="18"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="18"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="18"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="18"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="18"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="18"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="18"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="18"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="18"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="18"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="18"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="18"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="18"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="18"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="18"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="18"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="18"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="18"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="18"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="18"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="18"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="18"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="18"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="18"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="18"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="18"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="18"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="18"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="18"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="18"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="18"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105" s="18"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" s="18"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="18"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" s="18"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109" s="18"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="18"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111" s="18"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" s="18"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" s="18"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="18"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115" s="18"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116" s="18"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" s="18"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" s="18"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" s="18"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" s="18"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" s="18"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" s="18"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" s="18"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124" s="18"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" s="18"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="18"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127" s="18"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128" s="18"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" s="18"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" s="18"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131" s="18"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132" s="18"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133" s="18"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134" s="18"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" s="18"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" s="18"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137" s="18"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138" s="18"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139" s="18"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140" s="18"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141" s="18"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142" s="18"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C143" s="18"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C144" s="18"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145" s="18"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" s="18"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147" s="18"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148" s="18"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149" s="18"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C150" s="18"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C151" s="18"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C152" s="18"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C153" s="18"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C154" s="18"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C155" s="18"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C156" s="18"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C157" s="18"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C158" s="18"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C159" s="18"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C160" s="18"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C161" s="18"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C162" s="18"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C163" s="18"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C164" s="18"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C165" s="18"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C166" s="18"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C167" s="18"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C168" s="18"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C169" s="18"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C170" s="18"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C171" s="18"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C172" s="18"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C173" s="18"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C174" s="18"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C175" s="18"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C176" s="18"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C177" s="18"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C178" s="18"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C179" s="18"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C180" s="18"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C181" s="18"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C182" s="18"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C183" s="18"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C184" s="18"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C185" s="18"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C186" s="18"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C187" s="18"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C188" s="18"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C189" s="18"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C190" s="18"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C191" s="18"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C192" s="18"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" s="18"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" s="18"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C195" s="18"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C196" s="18"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C197" s="18"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C198" s="18"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C199" s="18"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C200" s="18"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C201" s="18"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C202" s="18"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C203" s="18"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C204" s="18"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C205" s="18"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C206" s="18"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C207" s="18"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C208" s="18"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C209" s="18"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C210" s="18"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C211" s="18"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C212" s="18"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C213" s="18"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C214" s="18"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C215" s="18"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C216" s="18"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C217" s="18"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C218" s="18"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C219" s="18"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C220" s="18"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C221" s="18"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C222" s="18"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C223" s="18"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C224" s="18"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C225" s="18"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C226" s="18"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C227" s="18"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C228" s="18"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C229" s="18"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C230" s="18"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C231" s="18"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C232" s="18"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C233" s="18"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C234" s="18"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C235" s="18"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C236" s="18"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C237" s="18"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C238" s="18"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C239" s="18"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C240" s="18"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C241" s="18"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C242" s="18"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C243" s="18"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C244" s="18"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C245" s="18"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C246" s="18"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C247" s="18"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C248" s="18"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C249" s="18"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C250" s="18"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C251" s="18"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C252" s="18"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C253" s="18"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C254" s="18"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C255" s="18"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C256" s="18"/>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C257" s="18"/>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C258" s="18"/>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C259" s="18"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C260" s="18"/>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C261" s="18"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C262" s="18"/>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C263" s="18"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C264" s="18"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C265" s="18"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C266" s="18"/>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C267" s="18"/>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C268" s="18"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C269" s="18"/>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C270" s="18"/>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C271" s="18"/>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C272" s="18"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C273" s="18"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C274" s="18"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C275" s="18"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C276" s="18"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C277" s="18"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C278" s="18"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C279" s="18"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C280" s="18"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C281" s="18"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C282" s="18"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C283" s="18"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C284" s="18"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C285" s="18"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C286" s="18"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C287" s="18"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C288" s="18"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C289" s="18"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C290" s="18"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C291" s="18"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C292" s="18"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C293" s="18"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C294" s="18"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C295" s="18"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C296" s="18"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C297" s="18"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C298" s="18"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C299" s="18"/>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C300" s="18"/>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C301" s="18"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C302" s="18"/>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C303" s="18"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C304" s="18"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C305" s="18"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C306" s="18"/>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C307" s="18"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C308" s="18"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C309" s="18"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C310" s="18"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C311" s="18"/>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C312" s="18"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C313" s="18"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C314" s="18"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C315" s="18"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C316" s="18"/>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C317" s="18"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C318" s="18"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C319" s="18"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C320" s="18"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C321" s="18"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C322" s="18"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C323" s="18"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C324" s="18"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C325" s="18"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C326" s="18"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C327" s="18"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C328" s="18"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C329" s="18"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C330" s="18"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C331" s="18"/>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C332" s="18"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C333" s="18"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C334" s="18"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C335" s="18"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C336" s="18"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C337" s="18"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C338" s="18"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C339" s="18"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C340" s="18"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C341" s="18"/>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C342" s="18"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C343" s="18"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C344" s="18"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C345" s="18"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C346" s="18"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C347" s="18"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C348" s="18"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C349" s="18"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C350" s="18"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C351" s="18"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C352" s="18"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C353" s="18"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C354" s="18"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C355" s="18"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C356" s="18"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C357" s="18"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C358" s="18"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C359" s="18"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C360" s="18"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C361" s="18"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C362" s="18"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C363" s="18"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C364" s="18"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C365" s="18"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C366" s="18"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C367" s="18"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C368" s="18"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C369" s="18"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C370" s="18"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C371" s="18"/>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C372" s="18"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C373" s="18"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C374" s="18"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C375" s="18"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C376" s="18"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C377" s="18"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C378" s="18"/>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C379" s="18"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C380" s="18"/>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C381" s="18"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C382" s="18"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C383" s="18"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C384" s="18"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C385" s="18"/>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C386" s="18"/>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C387" s="18"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C388" s="18"/>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C389" s="18"/>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C390" s="18"/>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C391" s="18"/>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C392" s="18"/>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C393" s="18"/>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C394" s="18"/>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C395" s="18"/>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C396" s="18"/>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C397" s="18"/>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C398" s="18"/>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C399" s="18"/>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C400" s="18"/>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C401" s="18"/>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C402" s="18"/>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C403" s="18"/>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C404" s="18"/>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C405" s="18"/>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C406" s="18"/>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C407" s="18"/>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C408" s="18"/>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C409" s="18"/>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C410" s="18"/>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C411" s="18"/>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C412" s="18"/>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C413" s="18"/>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C414" s="18"/>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C415" s="18"/>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C416" s="18"/>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C417" s="18"/>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C418" s="18"/>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C419" s="18"/>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C420" s="18"/>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C421" s="18"/>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C422" s="18"/>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C423" s="18"/>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C424" s="18"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C425" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A41:C42"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C4:C40 C44:C1048576">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+  <conditionalFormatting sqref="C4:C40">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="4" priority="5" stopIfTrue="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" display="https://www.amherst.edu/academiclife/departments/chemistry/major/major-requirements/courses-satisfying-the-chemistry-major-dei-requirement" xr:uid="{1A5CA75A-38F7-5B4C-AB8F-7EBAB5E8B11B}"/>
+    <hyperlink ref="D35" r:id="rId2" display="https://www.amherst.edu/academiclife/departments/biochemistry-biophysics/bcbpcourses/major-requirements" xr:uid="{A70E7BC5-6D19-0F43-ADA0-06FF24203F57}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663EF8CD-D0C1-2449-BC63-A3696E94C1F4}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="97.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="350" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:C6">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
+      <formula>LEN(TRIM(C2))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C4)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
@@ -2013,10 +3830,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="112" x14ac:dyDescent="0.2">
